--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,16 +8206,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,16 +8254,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9664,12 +9664,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,11 +9699,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,16 +8206,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,16 +8254,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9664,12 +9664,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,11 +9699,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -1748,7 +1748,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,7 +6395,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,16 +8206,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,16 +8254,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9664,12 +9664,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,11 +9699,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,7 +6395,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,16 +8206,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,16 +8254,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9664,12 +9664,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,11 +9699,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,7 +6395,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,16 +8206,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,16 +8254,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9664,12 +9664,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,11 +9699,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
+          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa Portuaria Austral</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2985</v>
+        <v>4531</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
+          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2985</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación Muelle de Operaciones</t>
+          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>Empresa Portuaria Austral</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Ampliación Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6500</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>04/03/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Servicio Integral de Redes</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Redes Patagonia Austral SPA</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>04/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18/10/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Servicio Integral de Redes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Redes Patagonia Austral SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>18/10/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Christian Patricio Adema Galetovic</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Christian Patricio Adema Galetovic</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4531</v>
+        <v>6500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/01/2020</t>
+          <t>16/09/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3000</v>
+        <v>4531</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/09/2018</t>
+          <t>20/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>876</v>
+        <v>3000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14/09/2018</t>
+          <t>20/09/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
+          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>23100</v>
+        <v>876</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/04/2018</t>
+          <t>14/09/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
+          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chañihue SpA</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1500</v>
+        <v>23100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/03/2018</t>
+          <t>18/04/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
+          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Chañihue SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Procesadora Dumestre Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>70000</v>
+        <v>3000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>20/03/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Procesadora Dumestre Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>23100</v>
+        <v>70000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
+          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18600</v>
+        <v>23100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/12/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
+          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Magallanes S.A.</t>
+          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3684</v>
+        <v>18600</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>27/12/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Empresa Eléctrica de Magallanes S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>76</v>
+        <v>3684</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18/12/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3000</v>
+        <v>76</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/11/2017</t>
+          <t>18/12/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>366</v>
+        <v>3000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16/11/2017</t>
+          <t>17/11/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
+          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>22600</v>
+        <v>366</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/06/2017</t>
+          <t>16/11/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
+          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/06/2017</t>
+          <t>23/06/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proyecto Tranquilo</t>
+          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50000</v>
+        <v>22600</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/11/2016</t>
+          <t>13/06/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LOTEO NATALES ORIENTE</t>
+          <t>Proyecto Tranquilo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6106</v>
+        <v>50000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14/10/2016</t>
+          <t>15/11/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tranquilo</t>
+          <t>LOTEO NATALES ORIENTE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50000</v>
+        <v>6106</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>14/10/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
+          <t>Tranquilo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/04/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>90</v>
+        <v>24000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/04/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4000</v>
+        <v>90</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
+          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorias Eden Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>950</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
+          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Inversiones y Asesorias Eden Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>24000</v>
+        <v>950</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>03/02/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1100</v>
+        <v>24000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/12/2014</t>
+          <t>03/02/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>15/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>540</v>
+        <v>1100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,11 +2219,11 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>920</v>
+        <v>540</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>04/12/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>430</v>
+        <v>920</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>04/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>850</v>
+        <v>430</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21/11/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>180</v>
+        <v>3500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/11/2014</t>
+          <t>21/11/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3500</v>
+        <v>320</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05/03/2014</t>
+          <t>19/11/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad Minera Patagonia Peat S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>450</v>
+        <v>3500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>05/03/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
+          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Minera Patagonia Peat S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22/10/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,11 +2843,11 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>27/06/2013</t>
+          <t>22/10/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
+          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>24/06/2013</t>
+          <t>27/06/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>24/06/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Zúñiga</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ServiAustral S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>07/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
+          <t>Extracción de Áridos Zúñiga</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ServiAustral S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,11 +3083,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>07/06/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06/02/2013</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,21 +3371,21 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23/10/2012</t>
+          <t>06/02/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,21 +3419,21 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>30</v>
+        <v>24000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04/10/2012</t>
+          <t>23/10/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>04/10/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2700</v>
+        <v>30</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17/08/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
+          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>17/08/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
+          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
+          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3500</v>
+        <v>45</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>10/04/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>03/04/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>03/04/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>19/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>15/03/2012</t>
+          <t>19/03/2012</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>15/03/2012</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>29/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16/02/2012</t>
+          <t>29/02/2012</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,11 +4907,11 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>06/02/2012</t>
+          <t>16/02/2012</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/02/2012</t>
+          <t>06/02/2012</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
+          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>02/02/2012</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5051,21 +5051,21 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>28/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>26/12/2011</t>
+          <t>28/12/2011</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>26/12/2011</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,11 +5339,11 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>04/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02/11/2011</t>
+          <t>04/11/2011</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>28/10/2011</t>
+          <t>02/11/2011</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,21 +5483,21 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>24000</v>
+        <v>30</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>12/10/2011</t>
+          <t>28/10/2011</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>12/10/2011</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2400</v>
+        <v>24000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>09/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
+          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
+          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07/09/2011</t>
+          <t>09/09/2011</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>07/09/2011</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>30</v>
+        <v>2400</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>31/08/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
+          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2400</v>
+        <v>30</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>31/08/2011</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Agrupación de Cipreseros Última Esperanza</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>110</v>
+        <v>2400</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Agrupación de Cipreseros Última Esperanza</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>25/07/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>11/07/2011</t>
+          <t>25/07/2011</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>11/07/2011</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
+          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
+          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3500</v>
+        <v>180</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
+          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>28/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,11 +6539,11 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>28/10/2010</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,11 +6587,11 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>3500</v>
+        <v>110</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>31/08/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6639,17 +6639,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>10/08/2010</t>
+          <t>31/08/2010</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>13200</v>
+        <v>3500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>10/08/2010</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>13200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>13000</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>07/04/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6831,17 +6831,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>07/04/2010</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>11/02/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>189</v>
+        <v>13000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>11/02/2010</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6975,17 +6975,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>13/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2000</v>
+        <v>189</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>13/01/2010</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
+          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Entrevientos S.A</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2755</v>
+        <v>2000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Entrevientos S.A</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4000</v>
+        <v>2755</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>17/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>17/04/2009</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>13/04/2009</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,21 +7355,21 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>12/01/2009</t>
+          <t>13/04/2009</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>12/01/2009</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1200</v>
+        <v>4245</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,30 +7586,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20/06/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,10 +7624,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7635,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>22/04/2008</t>
+          <t>20/06/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7653,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,14 +7672,10 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7683,15 +7683,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>24/03/2008</t>
+          <t>22/04/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,15 +7731,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>24/03/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7774,30 +7774,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7822,30 +7822,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>07/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,25 +7875,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>07/08/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,30 +7966,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,30 +8014,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
+          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,15 +8115,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,30 +8158,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,30 +8206,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,25 +8307,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8363,17 +8363,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,25 +8403,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>03/04/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,30 +8446,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>03/04/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,17 +8507,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,30 +8542,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Constructora BCF S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>940</v>
+        <v>4000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>19/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
+          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,15 +8595,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Constructora BCF S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>4124</v>
+        <v>940</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>19/01/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,15 +8643,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,25 +8691,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4124</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,25 +8739,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL COLD SA</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>11/11/2004</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,7 +8839,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,25 +8883,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Nestor Manuel Hernandez Fuentes</t>
+          <t>SOCIEDAD COMERCIAL COLD SA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>07/09/2004</t>
+          <t>11/11/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SEAMAG S.A.</t>
+          <t>Nestor Manuel Hernandez Fuentes</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -8939,17 +8939,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>07/09/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,25 +8979,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>SEAMAG S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1500</v>
+        <v>24</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>29/10/2003</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,25 +9027,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>29/10/2003</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,15 +9075,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>12/08/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
+          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>20000</v>
+        <v>3300</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>28/05/2003</t>
+          <t>12/08/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
+          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>21/04/2003</t>
+          <t>28/05/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
+          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,7 +9223,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
+          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Comercial Mac Lean y Cía. Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/04/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
+          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,11 +9315,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Comercial Mac Lean y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
+          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,25 +9363,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Acuicola Aguas Australes S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Esperanza E</t>
+          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,25 +9411,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3000</v>
+        <v>280</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
+          <t>Perforación de Pozo Esperanza E</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Construcción Muelle de Operaciones</t>
+          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>30/07/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
+          <t>Construcción Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,25 +9555,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Ejercito de Chile - V División</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/07/2002</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,25 +9603,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>Ejercito de Chile - V División</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>26/10/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,25 +9651,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2400</v>
+        <v>350</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>26/10/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,11 +9699,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9934,30 +9934,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200</v>
+        <v>3600</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9982,30 +9982,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>17/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
+          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,15 +10035,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>10/08/2001</t>
+          <t>17/09/2001</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Isla Surtidora GLP</t>
+          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,25 +10083,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>GASCO S.A.</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>29/09/2000</t>
+          <t>10/08/2001</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Complejo Quincho Villa Luisa</t>
+          <t>Isla Surtidora GLP</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,25 +10131,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Hielos Patagónicos Ltda.</t>
+          <t>GASCO S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>12/09/2000</t>
+          <t>29/09/2000</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,12 +10164,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Sólidos de Natales</t>
+          <t>Complejo Quincho Villa Luisa</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Hielos Patagónicos Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10187,17 +10187,17 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>05/06/2000</t>
+          <t>12/09/2000</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,12 +10212,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
+          <t>Tratamiento de Residuos Sólidos de Natales</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10227,25 +10227,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>René Raúl Montiel Quediman</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>03/04/2000</t>
+          <t>05/06/2000</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10270,20 +10270,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>René Raúl Montiel Quediman</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>03/04/2000</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Complejo Turístico Estancia Perales</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10318,20 +10318,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Juana Rodríguez Tevini</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>28/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Producción de Ovas y Alevines de Salmonideos</t>
+          <t>Complejo Turístico Estancia Perales</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Juana Rodríguez Tevini</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>13/10/1999</t>
+          <t>28/10/1999</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Centro de Alojamiento Turístico La Estancia</t>
+          <t>Producción de Ovas y Alevines de Salmonideos</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,15 +10419,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Armando Antonio Alvarez Saldivia</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>26/07/1999</t>
+          <t>13/10/1999</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
+          <t>Centro de Alojamiento Turístico La Estancia</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Trelke Aike Ltda.</t>
+          <t>Armando Antonio Alvarez Saldivia</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>26/07/1999</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
+          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
+          <t>Trelke Aike Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>15/12/1998</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
+          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>16/10/1998</t>
+          <t>15/12/1998</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
+          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>16/10/1998</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
+          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sociedad Paso del Indio S.A.</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>08/09/1998</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,25 +10707,25 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Albamar S.A.</t>
+          <t>Sociedad Paso del Indio S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>19/08/1997</t>
+          <t>08/09/1998</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,43 +10740,91 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
+          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Albamar S.A.</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>650</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>19/08/1997</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Natales</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>Vertedero Municipal de Puerto Natales</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
         <is>
           <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
-      <c r="F217" t="n">
+      <c r="F218" t="n">
         <v>20</v>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>11/08/1997</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
+      <c r="I218" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>Natales</t>
         </is>

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,16 +8254,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,16 +8302,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,7 +9703,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,16 +8254,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,16 +8302,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,7 +9703,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,16 +8254,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,16 +8302,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,7 +9703,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,16 +8254,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,16 +8302,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,7 +9703,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
+          <t>Ampliación de Biomasa de Centro de Engorda de Salmones. Código de centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>24/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156325560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
+          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empresa Portuaria Austral</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2985</v>
+        <v>4531</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
+          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,21 +539,21 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2985</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Muelle de Operaciones</t>
+          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>Empresa Portuaria Austral</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Ampliación Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6500</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>04/03/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Servicio Integral de Redes</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Redes Patagonia Austral SPA</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>04/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/10/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Servicio Integral de Redes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Redes Patagonia Austral SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>18/10/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Christian Patricio Adema Galetovic</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Christian Patricio Adema Galetovic</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4531</v>
+        <v>6500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/01/2020</t>
+          <t>16/09/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3000</v>
+        <v>4531</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/09/2018</t>
+          <t>20/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>876</v>
+        <v>3000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14/09/2018</t>
+          <t>20/09/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
+          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>23100</v>
+        <v>876</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/04/2018</t>
+          <t>14/09/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
+          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Chañihue SpA</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1500</v>
+        <v>23100</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/03/2018</t>
+          <t>18/04/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
+          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Chañihue SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Procesadora Dumestre Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>70000</v>
+        <v>3000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>20/03/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Procesadora Dumestre Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>23100</v>
+        <v>70000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
+          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>18600</v>
+        <v>23100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/12/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
+          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Magallanes S.A.</t>
+          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3684</v>
+        <v>18600</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>27/12/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Empresa Eléctrica de Magallanes S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>76</v>
+        <v>3684</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/12/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3000</v>
+        <v>76</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/11/2017</t>
+          <t>18/12/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>366</v>
+        <v>3000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>16/11/2017</t>
+          <t>17/11/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
+          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>22600</v>
+        <v>366</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/06/2017</t>
+          <t>16/11/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
+          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/06/2017</t>
+          <t>23/06/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto Tranquilo</t>
+          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50000</v>
+        <v>22600</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/11/2016</t>
+          <t>13/06/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LOTEO NATALES ORIENTE</t>
+          <t>Proyecto Tranquilo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6106</v>
+        <v>50000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14/10/2016</t>
+          <t>15/11/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tranquilo</t>
+          <t>LOTEO NATALES ORIENTE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50000</v>
+        <v>6106</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>14/10/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
+          <t>Tranquilo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/04/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>90</v>
+        <v>24000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/04/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4000</v>
+        <v>90</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
+          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorias Eden Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>950</v>
+        <v>4000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
+          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Inversiones y Asesorias Eden Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>24000</v>
+        <v>950</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>03/02/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1100</v>
+        <v>24000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/12/2014</t>
+          <t>03/02/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,11 +2119,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>15/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>540</v>
+        <v>1100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>920</v>
+        <v>540</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/12/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>430</v>
+        <v>920</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>04/12/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>850</v>
+        <v>430</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>21/11/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>180</v>
+        <v>3500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19/11/2014</t>
+          <t>21/11/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3500</v>
+        <v>320</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>05/03/2014</t>
+          <t>19/11/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Minera Patagonia Peat S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>450</v>
+        <v>3500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>05/03/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
+          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Minera Patagonia Peat S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22/10/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,11 +2891,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>27/06/2013</t>
+          <t>22/10/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
+          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>24/06/2013</t>
+          <t>27/06/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>24/06/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Zúñiga</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ServiAustral S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
+          <t>Extracción de Áridos Zúñiga</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ServiAustral S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,11 +3131,11 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>07/06/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/02/2013</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,21 +3419,21 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/10/2012</t>
+          <t>06/02/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,21 +3467,21 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>30</v>
+        <v>24000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/10/2012</t>
+          <t>23/10/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>04/10/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2700</v>
+        <v>30</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>17/08/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
+          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>17/08/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
+          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
+          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3500</v>
+        <v>45</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>10/04/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>03/04/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>03/04/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>19/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>15/03/2012</t>
+          <t>19/03/2012</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>15/03/2012</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>29/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>16/02/2012</t>
+          <t>29/02/2012</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4955,11 +4955,11 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>06/02/2012</t>
+          <t>16/02/2012</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/02/2012</t>
+          <t>06/02/2012</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
+          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>02/02/2012</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,21 +5099,21 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>28/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>26/12/2011</t>
+          <t>28/12/2011</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>26/12/2011</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5387,11 +5387,11 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>04/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02/11/2011</t>
+          <t>04/11/2011</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>28/10/2011</t>
+          <t>02/11/2011</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,21 +5531,21 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>24000</v>
+        <v>30</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12/10/2011</t>
+          <t>28/10/2011</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>12/10/2011</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2400</v>
+        <v>24000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>09/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
+          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
+          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/09/2011</t>
+          <t>09/09/2011</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>07/09/2011</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>30</v>
+        <v>2400</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>31/08/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
+          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2400</v>
+        <v>30</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>31/08/2011</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Agrupación de Cipreseros Última Esperanza</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>110</v>
+        <v>2400</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Agrupación de Cipreseros Última Esperanza</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>25/07/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>11/07/2011</t>
+          <t>25/07/2011</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>11/07/2011</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
+          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
+          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3500</v>
+        <v>180</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
+          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>28/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,11 +6587,11 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>28/10/2010</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,11 +6635,11 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3500</v>
+        <v>110</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/08/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6687,17 +6687,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>10/08/2010</t>
+          <t>31/08/2010</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>13200</v>
+        <v>3500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>10/08/2010</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>13200</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>13000</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>07/04/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6879,17 +6879,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>07/04/2010</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>11/02/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>189</v>
+        <v>13000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>11/02/2010</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7023,17 +7023,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2000</v>
+        <v>189</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>13/01/2010</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
+          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Entrevientos S.A</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2755</v>
+        <v>2000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Entrevientos S.A</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4000</v>
+        <v>2755</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>17/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,11 +7211,11 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>17/04/2009</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>13/04/2009</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,21 +7403,21 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12/01/2009</t>
+          <t>13/04/2009</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>12/01/2009</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2755</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,30 +7586,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1200</v>
+        <v>2755</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,30 +7634,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20/06/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,10 +7672,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7683,15 +7687,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>22/04/2008</t>
+          <t>20/06/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7701,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,14 +7720,10 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7731,15 +7731,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>24/03/2008</t>
+          <t>22/04/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,15 +7779,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>24/03/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7822,30 +7822,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7870,30 +7870,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>07/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,25 +7923,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>07/08/2007</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,30 +8014,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,30 +8062,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
+          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,15 +8163,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,30 +8206,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,17 +8267,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,30 +8350,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8411,17 +8411,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,25 +8451,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>03/04/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,30 +8494,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>03/04/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,17 +8555,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,30 +8590,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Constructora BCF S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>940</v>
+        <v>4000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>19/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
+          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,15 +8643,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Constructora BCF S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4124</v>
+        <v>940</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>19/01/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,15 +8691,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,25 +8739,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4124</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,25 +8787,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL COLD SA</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>11/11/2004</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,25 +8931,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Nestor Manuel Hernandez Fuentes</t>
+          <t>SOCIEDAD COMERCIAL COLD SA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>07/09/2004</t>
+          <t>11/11/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>SEAMAG S.A.</t>
+          <t>Nestor Manuel Hernandez Fuentes</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -8987,17 +8987,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>07/09/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,25 +9027,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>SEAMAG S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>24</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>29/10/2003</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,25 +9075,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>29/10/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>12/08/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
+          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>20000</v>
+        <v>3300</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>28/05/2003</t>
+          <t>12/08/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
+          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>21/04/2003</t>
+          <t>28/05/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
+          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
+          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Comercial Mac Lean y Cía. Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/04/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
+          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,11 +9363,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Comercial Mac Lean y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
+          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,25 +9411,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Acuicola Aguas Australes S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Esperanza E</t>
+          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,25 +9459,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3000</v>
+        <v>280</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
+          <t>Perforación de Pozo Esperanza E</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Construcción Muelle de Operaciones</t>
+          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>30/07/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
+          <t>Construcción Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,25 +9603,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ejercito de Chile - V División</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/07/2002</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,25 +9651,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>Ejercito de Chile - V División</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>26/10/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>26/10/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9982,20 +9982,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,30 +10030,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>17/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
+          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,15 +10083,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>10/08/2001</t>
+          <t>17/09/2001</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Isla Surtidora GLP</t>
+          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,25 +10131,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>GASCO S.A.</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>29/09/2000</t>
+          <t>10/08/2001</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Complejo Quincho Villa Luisa</t>
+          <t>Isla Surtidora GLP</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,25 +10179,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Hielos Patagónicos Ltda.</t>
+          <t>GASCO S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>12/09/2000</t>
+          <t>29/09/2000</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,12 +10212,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Sólidos de Natales</t>
+          <t>Complejo Quincho Villa Luisa</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Hielos Patagónicos Ltda.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10235,17 +10235,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>05/06/2000</t>
+          <t>12/09/2000</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,12 +10260,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
+          <t>Tratamiento de Residuos Sólidos de Natales</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10275,25 +10275,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>René Raúl Montiel Quediman</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>03/04/2000</t>
+          <t>05/06/2000</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10318,20 +10318,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>René Raúl Montiel Quediman</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>03/04/2000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Complejo Turístico Estancia Perales</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10366,20 +10366,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Juana Rodríguez Tevini</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>28/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Producción de Ovas y Alevines de Salmonideos</t>
+          <t>Complejo Turístico Estancia Perales</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,15 +10419,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Juana Rodríguez Tevini</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>13/10/1999</t>
+          <t>28/10/1999</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Centro de Alojamiento Turístico La Estancia</t>
+          <t>Producción de Ovas y Alevines de Salmonideos</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Armando Antonio Alvarez Saldivia</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>26/07/1999</t>
+          <t>13/10/1999</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
+          <t>Centro de Alojamiento Turístico La Estancia</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Trelke Aike Ltda.</t>
+          <t>Armando Antonio Alvarez Saldivia</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>26/07/1999</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
+          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
+          <t>Trelke Aike Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>15/12/1998</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
+          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>16/10/1998</t>
+          <t>15/12/1998</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
+          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>16/10/1998</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
+          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sociedad Paso del Indio S.A.</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>08/09/1998</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,25 +10755,25 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Albamar S.A.</t>
+          <t>Sociedad Paso del Indio S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>19/08/1997</t>
+          <t>08/09/1998</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,43 +10788,91 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
+          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Albamar S.A.</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>650</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>19/08/1997</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Natales</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
           <t>Vertedero Municipal de Puerto Natales</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
         <is>
           <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
-      <c r="F218" t="n">
+      <c r="F219" t="n">
         <v>20</v>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>11/08/1997</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr">
+      <c r="I219" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J218" t="inlineStr">
+      <c r="J219" t="inlineStr">
         <is>
           <t>Natales</t>
         </is>

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,16 +8302,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,16 +8350,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,7 +9751,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,16 +8302,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,16 +8350,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,7 +9751,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,16 +8302,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,16 +8350,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,7 +9751,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Centro de Engorda de Salmones. Código de centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
+          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/06/2022</t>
+          <t>05/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156325560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156395867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
+          <t>Ampliación de Biomasa de Centro de Engorda de Salmones. Código de centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>24/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156325560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
+          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Empresa Portuaria Austral</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2985</v>
+        <v>4531</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
+          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2985</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación Muelle de Operaciones</t>
+          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>Empresa Portuaria Austral</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Ampliación Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6500</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>04/03/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Servicio Integral de Redes</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Redes Patagonia Austral SPA</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>04/03/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/10/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Servicio Integral de Redes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Redes Patagonia Austral SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>18/10/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Christian Patricio Adema Galetovic</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Christian Patricio Adema Galetovic</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4531</v>
+        <v>6500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/01/2020</t>
+          <t>16/09/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3000</v>
+        <v>4531</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/09/2018</t>
+          <t>20/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>876</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14/09/2018</t>
+          <t>20/09/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
+          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>23100</v>
+        <v>876</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/04/2018</t>
+          <t>14/09/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
+          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Chañihue SpA</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1500</v>
+        <v>23100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/03/2018</t>
+          <t>18/04/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
+          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,11 +1207,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Chañihue SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1220,12 +1220,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Procesadora Dumestre Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>70000</v>
+        <v>3000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>20/03/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Procesadora Dumestre Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>23100</v>
+        <v>70000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
+          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>18600</v>
+        <v>23100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/12/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
+          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Magallanes S.A.</t>
+          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3684</v>
+        <v>18600</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>27/12/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Empresa Eléctrica de Magallanes S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>76</v>
+        <v>3684</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18/12/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3000</v>
+        <v>76</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/11/2017</t>
+          <t>18/12/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>366</v>
+        <v>3000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16/11/2017</t>
+          <t>17/11/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
+          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22600</v>
+        <v>366</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/06/2017</t>
+          <t>16/11/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
+          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13/06/2017</t>
+          <t>23/06/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Tranquilo</t>
+          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50000</v>
+        <v>22600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15/11/2016</t>
+          <t>13/06/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LOTEO NATALES ORIENTE</t>
+          <t>Proyecto Tranquilo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6106</v>
+        <v>50000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14/10/2016</t>
+          <t>15/11/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tranquilo</t>
+          <t>LOTEO NATALES ORIENTE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50000</v>
+        <v>6106</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>14/10/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
+          <t>Tranquilo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/04/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>90</v>
+        <v>24000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/04/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4000</v>
+        <v>90</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
+          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorias Eden Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>950</v>
+        <v>4000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
+          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Inversiones y Asesorias Eden Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>24000</v>
+        <v>950</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>03/02/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1100</v>
+        <v>24000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/12/2014</t>
+          <t>03/02/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>15/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>540</v>
+        <v>1100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>920</v>
+        <v>540</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04/12/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,11 +2363,11 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>430</v>
+        <v>920</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>04/12/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>850</v>
+        <v>430</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>21/11/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>180</v>
+        <v>3500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19/11/2014</t>
+          <t>21/11/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3500</v>
+        <v>320</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05/03/2014</t>
+          <t>19/11/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Minera Patagonia Peat S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>450</v>
+        <v>3500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>05/03/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
+          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Minera Patagonia Peat S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>22/10/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,11 +2939,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>27/06/2013</t>
+          <t>22/10/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
+          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>24/06/2013</t>
+          <t>27/06/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>24/06/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Zúñiga</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ServiAustral S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
+          <t>Extracción de Áridos Zúñiga</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ServiAustral S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,11 +3179,11 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>07/06/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>06/02/2013</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,21 +3467,21 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/10/2012</t>
+          <t>06/02/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,21 +3515,21 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>30</v>
+        <v>24000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/10/2012</t>
+          <t>23/10/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>04/10/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2700</v>
+        <v>30</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>17/08/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
+          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>17/08/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
+          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
+          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3500</v>
+        <v>45</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>10/04/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>03/04/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>03/04/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>19/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/03/2012</t>
+          <t>19/03/2012</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>15/03/2012</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>29/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>16/02/2012</t>
+          <t>29/02/2012</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5003,11 +5003,11 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06/02/2012</t>
+          <t>16/02/2012</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/02/2012</t>
+          <t>06/02/2012</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
+          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>02/02/2012</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,21 +5147,21 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>28/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>26/12/2011</t>
+          <t>28/12/2011</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>26/12/2011</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,11 +5435,11 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>04/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>02/11/2011</t>
+          <t>04/11/2011</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>28/10/2011</t>
+          <t>02/11/2011</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,21 +5579,21 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>24000</v>
+        <v>30</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12/10/2011</t>
+          <t>28/10/2011</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>12/10/2011</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2400</v>
+        <v>24000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>09/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
+          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
+          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>07/09/2011</t>
+          <t>09/09/2011</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>07/09/2011</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>30</v>
+        <v>2400</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>31/08/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
+          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2400</v>
+        <v>30</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>31/08/2011</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Agrupación de Cipreseros Última Esperanza</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>110</v>
+        <v>2400</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Agrupación de Cipreseros Última Esperanza</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>25/07/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>11/07/2011</t>
+          <t>25/07/2011</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>11/07/2011</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
+          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
+          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3500</v>
+        <v>180</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6399,17 +6399,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
+          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>28/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,11 +6635,11 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>28/10/2010</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,11 +6683,11 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3500</v>
+        <v>110</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>31/08/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6735,17 +6735,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10/08/2010</t>
+          <t>31/08/2010</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>13200</v>
+        <v>3500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>10/08/2010</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>13200</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>13000</v>
+        <v>30</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>07/04/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6927,17 +6927,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>07/04/2010</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>11/02/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>189</v>
+        <v>13000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>11/02/2010</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7071,17 +7071,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>13/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2000</v>
+        <v>189</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>13/01/2010</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
+          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Entrevientos S.A</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2755</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Entrevientos S.A</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>4000</v>
+        <v>2755</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>17/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,11 +7259,11 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>17/04/2009</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/04/2009</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,21 +7451,21 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>12/01/2009</t>
+          <t>13/04/2009</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>12/01/2009</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2755</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,30 +7634,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1200</v>
+        <v>2755</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,30 +7682,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20/06/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,10 +7720,14 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7731,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>22/04/2008</t>
+          <t>20/06/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,14 +7768,10 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7779,15 +7779,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>24/03/2008</t>
+          <t>22/04/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,15 +7827,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>24/03/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7870,30 +7870,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7918,30 +7918,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>07/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>07/08/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,30 +8062,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8110,30 +8110,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
+          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,15 +8211,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,30 +8254,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,17 +8315,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,30 +8398,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8459,17 +8459,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,25 +8499,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>03/04/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,30 +8542,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>03/04/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,17 +8603,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,30 +8638,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Constructora BCF S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>940</v>
+        <v>4000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>19/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
+          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,15 +8691,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Constructora BCF S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4124</v>
+        <v>940</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>19/01/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,25 +8787,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>4124</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,25 +8835,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL COLD SA</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>11/11/2004</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,7 +8935,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,25 +8979,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Nestor Manuel Hernandez Fuentes</t>
+          <t>SOCIEDAD COMERCIAL COLD SA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>07/09/2004</t>
+          <t>11/11/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>SEAMAG S.A.</t>
+          <t>Nestor Manuel Hernandez Fuentes</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9035,17 +9035,17 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>07/09/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,25 +9075,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>SEAMAG S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>24</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>29/10/2003</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,25 +9123,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>29/10/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>12/08/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
+          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>20000</v>
+        <v>3300</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>28/05/2003</t>
+          <t>12/08/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
+          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>21/04/2003</t>
+          <t>28/05/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
+          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,7 +9319,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
+          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Comercial Mac Lean y Cía. Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/04/2003</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
+          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,11 +9411,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Comercial Mac Lean y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
+          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,25 +9459,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Acuicola Aguas Australes S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Esperanza E</t>
+          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,25 +9507,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>3000</v>
+        <v>280</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
+          <t>Perforación de Pozo Esperanza E</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Construcción Muelle de Operaciones</t>
+          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>30/07/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
+          <t>Construcción Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,25 +9651,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Ejercito de Chile - V División</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/07/2002</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,25 +9699,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>Ejercito de Chile - V División</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>26/10/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>26/10/2001</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,20 +10030,20 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,30 +10078,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>17/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
+          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>10/08/2001</t>
+          <t>17/09/2001</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Isla Surtidora GLP</t>
+          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,25 +10179,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>GASCO S.A.</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>29/09/2000</t>
+          <t>10/08/2001</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Complejo Quincho Villa Luisa</t>
+          <t>Isla Surtidora GLP</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,25 +10227,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Hielos Patagónicos Ltda.</t>
+          <t>GASCO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>12/09/2000</t>
+          <t>29/09/2000</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,12 +10260,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Sólidos de Natales</t>
+          <t>Complejo Quincho Villa Luisa</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Hielos Patagónicos Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10283,17 +10283,17 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>05/06/2000</t>
+          <t>12/09/2000</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,12 +10308,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
+          <t>Tratamiento de Residuos Sólidos de Natales</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10323,25 +10323,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>René Raúl Montiel Quediman</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>03/04/2000</t>
+          <t>05/06/2000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10366,20 +10366,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>René Raúl Montiel Quediman</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>03/04/2000</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Complejo Turístico Estancia Perales</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10414,20 +10414,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Juana Rodríguez Tevini</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>28/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Producción de Ovas y Alevines de Salmonideos</t>
+          <t>Complejo Turístico Estancia Perales</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Juana Rodríguez Tevini</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>13/10/1999</t>
+          <t>28/10/1999</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Centro de Alojamiento Turístico La Estancia</t>
+          <t>Producción de Ovas y Alevines de Salmonideos</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Armando Antonio Alvarez Saldivia</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>26/07/1999</t>
+          <t>13/10/1999</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
+          <t>Centro de Alojamiento Turístico La Estancia</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Trelke Aike Ltda.</t>
+          <t>Armando Antonio Alvarez Saldivia</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>26/07/1999</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
+          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
+          <t>Trelke Aike Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>15/12/1998</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
+          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>16/10/1998</t>
+          <t>15/12/1998</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
+          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>16/10/1998</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
+          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Sociedad Paso del Indio S.A.</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>08/09/1998</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,25 +10803,25 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Albamar S.A.</t>
+          <t>Sociedad Paso del Indio S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>19/08/1997</t>
+          <t>08/09/1998</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,43 +10836,91 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
+          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Albamar S.A.</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>650</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>19/08/1997</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Natales</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
           <t>Vertedero Municipal de Puerto Natales</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
         <is>
           <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
-      <c r="F219" t="n">
+      <c r="F220" t="n">
         <v>20</v>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>11/08/1997</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I219" t="inlineStr">
+      <c r="I220" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr">
+      <c r="J220" t="inlineStr">
         <is>
           <t>Natales</t>
         </is>

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,16 +8350,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,16 +8398,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10048,12 +10048,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,16 +8350,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,16 +8398,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10048,12 +10048,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/07/2022</t>
+          <t>12/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,16 +8350,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,16 +8398,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10048,12 +10048,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,16 +8350,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,16 +8398,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10048,12 +10048,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
+          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120136. Centro Morgan. RCA Nº 011/2012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/07/2022</t>
+          <t>15/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156395867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156476401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Centro de Engorda de Salmones. Código de centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
+          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/06/2022</t>
+          <t>12/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156325560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156395867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
+          <t>Ampliación de Biomasa de Centro de Engorda de Salmones. Código de centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>24/06/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156325560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
+          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Empresa Portuaria Austral</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2985</v>
+        <v>4531</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
+          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2985</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación Muelle de Operaciones</t>
+          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>Empresa Portuaria Austral</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Ampliación Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6500</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>04/03/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Servicio Integral de Redes</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Redes Patagonia Austral SPA</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>04/03/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/10/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Servicio Integral de Redes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Redes Patagonia Austral SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>18/10/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Christian Patricio Adema Galetovic</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Christian Patricio Adema Galetovic</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4531</v>
+        <v>6500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/01/2020</t>
+          <t>16/09/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3000</v>
+        <v>4531</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/09/2018</t>
+          <t>20/01/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>876</v>
+        <v>3000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14/09/2018</t>
+          <t>20/09/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
+          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>23100</v>
+        <v>876</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/04/2018</t>
+          <t>14/09/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
+          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chañihue SpA</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1500</v>
+        <v>23100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/03/2018</t>
+          <t>18/04/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
+          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Chañihue SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1268,12 +1268,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Procesadora Dumestre Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>70000</v>
+        <v>3000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>20/03/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Procesadora Dumestre Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>23100</v>
+        <v>70000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
+          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>18600</v>
+        <v>23100</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/12/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
+          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Magallanes S.A.</t>
+          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3684</v>
+        <v>18600</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>27/12/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Empresa Eléctrica de Magallanes S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>76</v>
+        <v>3684</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18/12/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3000</v>
+        <v>76</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/11/2017</t>
+          <t>18/12/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>366</v>
+        <v>3000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16/11/2017</t>
+          <t>17/11/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
+          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>22600</v>
+        <v>366</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/06/2017</t>
+          <t>16/11/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
+          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13/06/2017</t>
+          <t>23/06/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Tranquilo</t>
+          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50000</v>
+        <v>22600</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/11/2016</t>
+          <t>13/06/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LOTEO NATALES ORIENTE</t>
+          <t>Proyecto Tranquilo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6106</v>
+        <v>50000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14/10/2016</t>
+          <t>15/11/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tranquilo</t>
+          <t>LOTEO NATALES ORIENTE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50000</v>
+        <v>6106</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>14/10/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
+          <t>Tranquilo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/04/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>90</v>
+        <v>24000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/04/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>90</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
+          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorias Eden Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>950</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
+          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Inversiones y Asesorias Eden Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>24000</v>
+        <v>950</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>03/02/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1100</v>
+        <v>24000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/12/2014</t>
+          <t>03/02/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>15/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>540</v>
+        <v>1100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,11 +2363,11 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>920</v>
+        <v>540</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04/12/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,11 +2411,11 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>430</v>
+        <v>920</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>04/12/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>850</v>
+        <v>430</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>21/11/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>180</v>
+        <v>3500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/11/2014</t>
+          <t>21/11/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3500</v>
+        <v>320</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05/03/2014</t>
+          <t>19/11/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Minera Patagonia Peat S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>450</v>
+        <v>3500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>05/03/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
+          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Minera Patagonia Peat S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>22/10/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,11 +2987,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>27/06/2013</t>
+          <t>22/10/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
+          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>24/06/2013</t>
+          <t>27/06/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>24/06/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Zúñiga</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ServiAustral S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>07/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
+          <t>Extracción de Áridos Zúñiga</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ServiAustral S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,11 +3227,11 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>07/06/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>06/02/2013</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,21 +3515,21 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/10/2012</t>
+          <t>06/02/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,21 +3563,21 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>24000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/10/2012</t>
+          <t>23/10/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>04/10/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2700</v>
+        <v>30</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>17/08/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
+          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>17/08/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
+          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
+          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3500</v>
+        <v>45</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>10/04/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>03/04/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>03/04/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>19/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/03/2012</t>
+          <t>19/03/2012</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>15/03/2012</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>29/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>16/02/2012</t>
+          <t>29/02/2012</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5051,11 +5051,11 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06/02/2012</t>
+          <t>16/02/2012</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/02/2012</t>
+          <t>06/02/2012</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
+          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>02/02/2012</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,21 +5195,21 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>28/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>26/12/2011</t>
+          <t>28/12/2011</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>26/12/2011</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,11 +5483,11 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>04/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>02/11/2011</t>
+          <t>04/11/2011</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>28/10/2011</t>
+          <t>02/11/2011</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,21 +5627,21 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>24000</v>
+        <v>30</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12/10/2011</t>
+          <t>28/10/2011</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>12/10/2011</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2400</v>
+        <v>24000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>09/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
+          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
+          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>07/09/2011</t>
+          <t>09/09/2011</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>07/09/2011</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>30</v>
+        <v>2400</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>31/08/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
+          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2400</v>
+        <v>30</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>31/08/2011</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Agrupación de Cipreseros Última Esperanza</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>110</v>
+        <v>2400</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Agrupación de Cipreseros Última Esperanza</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>25/07/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>11/07/2011</t>
+          <t>25/07/2011</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>11/07/2011</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
+          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
+          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3500</v>
+        <v>180</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6447,17 +6447,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
+          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>28/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,11 +6683,11 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>28/10/2010</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,11 +6731,11 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>3500</v>
+        <v>110</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>31/08/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6783,17 +6783,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10/08/2010</t>
+          <t>31/08/2010</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>13200</v>
+        <v>3500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>10/08/2010</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>30</v>
+        <v>13200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>13000</v>
+        <v>30</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>07/04/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6975,17 +6975,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>07/04/2010</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>11/02/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>189</v>
+        <v>13000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>11/02/2010</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7119,17 +7119,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>13/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>189</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>13/01/2010</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
+          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Entrevientos S.A</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2755</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Entrevientos S.A</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4000</v>
+        <v>2755</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>17/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>17/04/2009</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/04/2009</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,21 +7499,21 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>12/01/2009</t>
+          <t>13/04/2009</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>12/01/2009</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,30 +7682,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1200</v>
+        <v>2755</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,30 +7730,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20/06/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,10 +7768,14 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7779,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>22/04/2008</t>
+          <t>20/06/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,14 +7816,10 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7827,15 +7827,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>24/03/2008</t>
+          <t>22/04/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,15 +7875,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>24/03/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7918,30 +7918,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,30 +7966,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>07/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,25 +8019,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>07/08/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8110,30 +8110,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,30 +8158,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
+          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,7 +8215,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,15 +8259,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,30 +8302,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,30 +8350,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,16 +8398,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,30 +8446,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8507,17 +8507,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,25 +8547,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>03/04/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,30 +8590,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>03/04/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,17 +8651,17 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,30 +8686,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Constructora BCF S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>940</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>19/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
+          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Constructora BCF S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4124</v>
+        <v>940</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>19/01/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,25 +8835,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4124</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,25 +8883,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL COLD SA</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>11/11/2004</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,7 +8983,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,25 +9027,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Nestor Manuel Hernandez Fuentes</t>
+          <t>SOCIEDAD COMERCIAL COLD SA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>07/09/2004</t>
+          <t>11/11/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SEAMAG S.A.</t>
+          <t>Nestor Manuel Hernandez Fuentes</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9083,17 +9083,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>07/09/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,25 +9123,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>SEAMAG S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>24</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>29/10/2003</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,25 +9171,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>29/10/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>12/08/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
+          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>20000</v>
+        <v>3300</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>28/05/2003</t>
+          <t>12/08/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
+          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>21/04/2003</t>
+          <t>28/05/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
+          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
+          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Comercial Mac Lean y Cía. Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/04/2003</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
+          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,11 +9459,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Comercial Mac Lean y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
+          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,25 +9507,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Acuicola Aguas Australes S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Esperanza E</t>
+          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,25 +9555,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>3000</v>
+        <v>280</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
+          <t>Perforación de Pozo Esperanza E</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Construcción Muelle de Operaciones</t>
+          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>30/07/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
+          <t>Construcción Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,25 +9699,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Ejercito de Chile - V División</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/07/2002</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,25 +9747,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>Ejercito de Chile - V División</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>26/10/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,25 +9795,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2400</v>
+        <v>350</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>26/10/2001</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10048,12 +10048,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,20 +10078,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,30 +10126,30 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>17/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
+          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>10/08/2001</t>
+          <t>17/09/2001</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Isla Surtidora GLP</t>
+          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,25 +10227,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>GASCO S.A.</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>29/09/2000</t>
+          <t>10/08/2001</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Complejo Quincho Villa Luisa</t>
+          <t>Isla Surtidora GLP</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,25 +10275,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Hielos Patagónicos Ltda.</t>
+          <t>GASCO S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>12/09/2000</t>
+          <t>29/09/2000</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,12 +10308,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Sólidos de Natales</t>
+          <t>Complejo Quincho Villa Luisa</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Hielos Patagónicos Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10331,17 +10331,17 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>05/06/2000</t>
+          <t>12/09/2000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,12 +10356,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
+          <t>Tratamiento de Residuos Sólidos de Natales</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10371,25 +10371,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>René Raúl Montiel Quediman</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>03/04/2000</t>
+          <t>05/06/2000</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10414,20 +10414,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>René Raúl Montiel Quediman</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>03/04/2000</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Complejo Turístico Estancia Perales</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,20 +10462,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Juana Rodríguez Tevini</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>28/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Producción de Ovas y Alevines de Salmonideos</t>
+          <t>Complejo Turístico Estancia Perales</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Juana Rodríguez Tevini</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>13/10/1999</t>
+          <t>28/10/1999</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Centro de Alojamiento Turístico La Estancia</t>
+          <t>Producción de Ovas y Alevines de Salmonideos</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Armando Antonio Alvarez Saldivia</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>26/07/1999</t>
+          <t>13/10/1999</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
+          <t>Centro de Alojamiento Turístico La Estancia</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Trelke Aike Ltda.</t>
+          <t>Armando Antonio Alvarez Saldivia</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>26/07/1999</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
+          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
+          <t>Trelke Aike Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>15/12/1998</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
+          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>16/10/1998</t>
+          <t>15/12/1998</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
+          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>16/10/1998</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
+          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sociedad Paso del Indio S.A.</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>08/09/1998</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,25 +10851,25 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Albamar S.A.</t>
+          <t>Sociedad Paso del Indio S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>19/08/1997</t>
+          <t>08/09/1998</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,43 +10884,91 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
+          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Albamar S.A.</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>650</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>19/08/1997</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Natales</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
           <t>Vertedero Municipal de Puerto Natales</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
-      <c r="F220" t="n">
+      <c r="F221" t="n">
         <v>20</v>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>11/08/1997</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr">
+      <c r="I221" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr">
+      <c r="J221" t="inlineStr">
         <is>
           <t>Natales</t>
         </is>

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,16 +8398,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,16 +8446,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,11 +9987,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10096,12 +10096,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,16 +8398,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,16 +8446,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,11 +9987,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10096,12 +10096,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J221"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120136. Centro Morgan. RCA Nº 011/2012</t>
+          <t>CENTRAL DE GENERACIÓN DE ENERGÍA ELÉCTRICA A GAS LAS LENGAS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Innovación Energía S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4531</v>
+        <v>7000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156476401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156700763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
+          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120136. Centro Morgan. RCA Nº 011/2012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156395867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156476401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Centro de Engorda de Salmones. Código de centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
+          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/06/2022</t>
+          <t>12/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156325560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156395867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
+          <t>Ampliación de Biomasa de Centro de Engorda de Salmones. Código de centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>24/06/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156325560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
+          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Empresa Portuaria Austral</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2985</v>
+        <v>4531</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
+          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2985</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación Muelle de Operaciones</t>
+          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>Empresa Portuaria Austral</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Ampliación Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6500</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>04/03/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Servicio Integral de Redes</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Redes Patagonia Austral SPA</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>04/03/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/10/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Servicio Integral de Redes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Redes Patagonia Austral SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>18/10/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Christian Patricio Adema Galetovic</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Christian Patricio Adema Galetovic</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4531</v>
+        <v>6500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/01/2020</t>
+          <t>16/09/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3000</v>
+        <v>4531</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/09/2018</t>
+          <t>20/01/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>876</v>
+        <v>3000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14/09/2018</t>
+          <t>20/09/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
+          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>23100</v>
+        <v>876</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/04/2018</t>
+          <t>14/09/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
+          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chañihue SpA</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1500</v>
+        <v>23100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/03/2018</t>
+          <t>18/04/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
+          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,11 +1303,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Chañihue SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Procesadora Dumestre Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>70000</v>
+        <v>3000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>20/03/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Procesadora Dumestre Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>23100</v>
+        <v>70000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
+          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>18600</v>
+        <v>23100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/12/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
+          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Magallanes S.A.</t>
+          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3684</v>
+        <v>18600</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>27/12/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Empresa Eléctrica de Magallanes S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>76</v>
+        <v>3684</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18/12/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3000</v>
+        <v>76</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17/11/2017</t>
+          <t>18/12/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>366</v>
+        <v>3000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16/11/2017</t>
+          <t>17/11/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
+          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22600</v>
+        <v>366</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/06/2017</t>
+          <t>16/11/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
+          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13/06/2017</t>
+          <t>23/06/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Tranquilo</t>
+          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50000</v>
+        <v>22600</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15/11/2016</t>
+          <t>13/06/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LOTEO NATALES ORIENTE</t>
+          <t>Proyecto Tranquilo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6106</v>
+        <v>50000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14/10/2016</t>
+          <t>15/11/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tranquilo</t>
+          <t>LOTEO NATALES ORIENTE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50000</v>
+        <v>6106</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>14/10/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
+          <t>Tranquilo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/04/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>90</v>
+        <v>24000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/04/2016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4000</v>
+        <v>90</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
+          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorias Eden Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>950</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
+          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Inversiones y Asesorias Eden Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>24000</v>
+        <v>950</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>03/02/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1100</v>
+        <v>24000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/12/2014</t>
+          <t>03/02/2015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>15/12/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>540</v>
+        <v>1100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,11 +2411,11 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>920</v>
+        <v>540</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04/12/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,11 +2459,11 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>430</v>
+        <v>920</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>04/12/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>850</v>
+        <v>430</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>21/11/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>180</v>
+        <v>3500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/11/2014</t>
+          <t>21/11/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3500</v>
+        <v>320</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05/03/2014</t>
+          <t>19/11/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Minera Patagonia Peat S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>450</v>
+        <v>3500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>05/03/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
+          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Minera Patagonia Peat S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>22/10/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,11 +3035,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/06/2013</t>
+          <t>22/10/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
+          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>24/06/2013</t>
+          <t>27/06/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>24/06/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Zúñiga</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ServiAustral S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>07/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
+          <t>Extracción de Áridos Zúñiga</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ServiAustral S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,11 +3275,11 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>07/06/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>06/02/2013</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,21 +3563,21 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/10/2012</t>
+          <t>06/02/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,21 +3611,21 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>30</v>
+        <v>24000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04/10/2012</t>
+          <t>23/10/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>04/10/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2700</v>
+        <v>30</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17/08/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
+          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>17/08/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
+          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
+          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3500</v>
+        <v>45</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>10/04/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>03/04/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>03/04/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>19/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15/03/2012</t>
+          <t>19/03/2012</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>15/03/2012</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>29/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/02/2012</t>
+          <t>29/02/2012</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,11 +5099,11 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06/02/2012</t>
+          <t>16/02/2012</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/02/2012</t>
+          <t>06/02/2012</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
+          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>02/02/2012</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,21 +5243,21 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>28/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>26/12/2011</t>
+          <t>28/12/2011</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>26/12/2011</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,11 +5531,11 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>04/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>02/11/2011</t>
+          <t>04/11/2011</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>28/10/2011</t>
+          <t>02/11/2011</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,21 +5675,21 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>24000</v>
+        <v>30</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12/10/2011</t>
+          <t>28/10/2011</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>12/10/2011</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2400</v>
+        <v>24000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>09/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
+          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
+          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>07/09/2011</t>
+          <t>09/09/2011</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>07/09/2011</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>30</v>
+        <v>2400</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>31/08/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
+          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2400</v>
+        <v>30</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>31/08/2011</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Agrupación de Cipreseros Última Esperanza</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>110</v>
+        <v>2400</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Agrupación de Cipreseros Última Esperanza</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>25/07/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>11/07/2011</t>
+          <t>25/07/2011</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>11/07/2011</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
+          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
+          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3500</v>
+        <v>180</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
+          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>28/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,11 +6731,11 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>28/10/2010</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,11 +6779,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3500</v>
+        <v>110</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>31/08/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6831,17 +6831,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10/08/2010</t>
+          <t>31/08/2010</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>13200</v>
+        <v>3500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>10/08/2010</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>30</v>
+        <v>13200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>13000</v>
+        <v>30</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>07/04/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7023,17 +7023,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>07/04/2010</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>11/02/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>189</v>
+        <v>13000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>11/02/2010</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7167,17 +7167,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>189</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>13/01/2010</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
+          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Entrevientos S.A</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2755</v>
+        <v>2000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Entrevientos S.A</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4000</v>
+        <v>2755</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>17/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>17/04/2009</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/04/2009</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,21 +7547,21 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12/01/2009</t>
+          <t>13/04/2009</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>12/01/2009</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,30 +7730,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1200</v>
+        <v>2755</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,30 +7778,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>20/06/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,10 +7816,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7827,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>22/04/2008</t>
+          <t>20/06/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,14 +7864,10 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7875,15 +7875,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>24/03/2008</t>
+          <t>22/04/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,15 +7923,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>24/03/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,30 +7966,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,30 +8014,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>07/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,25 +8067,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>07/08/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,30 +8158,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,30 +8206,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
+          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,7 +8263,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,15 +8307,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,30 +8350,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,30 +8398,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,16 +8446,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,30 +8494,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8555,17 +8555,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,25 +8595,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>03/04/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,30 +8638,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>03/04/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,17 +8699,17 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,30 +8734,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Constructora BCF S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>940</v>
+        <v>4000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>19/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
+          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Constructora BCF S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>4124</v>
+        <v>940</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>19/01/2006</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,15 +8835,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,25 +8883,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4124</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,25 +8931,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL COLD SA</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>11/11/2004</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,25 +9075,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Nestor Manuel Hernandez Fuentes</t>
+          <t>SOCIEDAD COMERCIAL COLD SA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>07/09/2004</t>
+          <t>11/11/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SEAMAG S.A.</t>
+          <t>Nestor Manuel Hernandez Fuentes</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9131,17 +9131,17 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>07/09/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,25 +9171,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>SEAMAG S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>24</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>29/10/2003</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,25 +9219,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>29/10/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>12/08/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
+          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20000</v>
+        <v>3300</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>28/05/2003</t>
+          <t>12/08/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
+          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>21/04/2003</t>
+          <t>28/05/2003</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
+          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
+          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Comercial Mac Lean y Cía. Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/04/2003</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
+          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,11 +9507,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Comercial Mac Lean y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
+          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,25 +9555,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Acuicola Aguas Australes S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Esperanza E</t>
+          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,25 +9603,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>3000</v>
+        <v>280</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
+          <t>Perforación de Pozo Esperanza E</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Construcción Muelle de Operaciones</t>
+          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>30/07/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
+          <t>Construcción Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,25 +9747,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Ejercito de Chile - V División</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/07/2002</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,25 +9795,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>Ejercito de Chile - V División</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>26/10/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,25 +9843,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2400</v>
+        <v>350</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>26/10/2001</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10096,12 +10096,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,20 +10126,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10174,30 +10174,30 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>17/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
+          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>10/08/2001</t>
+          <t>17/09/2001</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Isla Surtidora GLP</t>
+          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,25 +10275,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>GASCO S.A.</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>29/09/2000</t>
+          <t>10/08/2001</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Complejo Quincho Villa Luisa</t>
+          <t>Isla Surtidora GLP</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,25 +10323,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Hielos Patagónicos Ltda.</t>
+          <t>GASCO S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>12/09/2000</t>
+          <t>29/09/2000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,12 +10356,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Sólidos de Natales</t>
+          <t>Complejo Quincho Villa Luisa</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Hielos Patagónicos Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>05/06/2000</t>
+          <t>12/09/2000</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,12 +10404,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
+          <t>Tratamiento de Residuos Sólidos de Natales</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10419,25 +10419,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>René Raúl Montiel Quediman</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>03/04/2000</t>
+          <t>05/06/2000</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,20 +10462,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>René Raúl Montiel Quediman</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>03/04/2000</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Complejo Turístico Estancia Perales</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,20 +10510,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Juana Rodríguez Tevini</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>28/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Producción de Ovas y Alevines de Salmonideos</t>
+          <t>Complejo Turístico Estancia Perales</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Juana Rodríguez Tevini</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>13/10/1999</t>
+          <t>28/10/1999</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Centro de Alojamiento Turístico La Estancia</t>
+          <t>Producción de Ovas y Alevines de Salmonideos</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Armando Antonio Alvarez Saldivia</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>26/07/1999</t>
+          <t>13/10/1999</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
+          <t>Centro de Alojamiento Turístico La Estancia</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Trelke Aike Ltda.</t>
+          <t>Armando Antonio Alvarez Saldivia</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>26/07/1999</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
+          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
+          <t>Trelke Aike Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>15/12/1998</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
+          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>16/10/1998</t>
+          <t>15/12/1998</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
+          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>16/10/1998</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
+          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sociedad Paso del Indio S.A.</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>08/09/1998</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,25 +10899,25 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Albamar S.A.</t>
+          <t>Sociedad Paso del Indio S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>19/08/1997</t>
+          <t>08/09/1998</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,43 +10932,91 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
+          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Albamar S.A.</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>650</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>19/08/1997</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Natales</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
           <t>Vertedero Municipal de Puerto Natales</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
         <is>
           <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
-      <c r="F221" t="n">
+      <c r="F222" t="n">
         <v>20</v>
       </c>
-      <c r="G221" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>11/08/1997</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr">
+      <c r="I222" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J221" t="inlineStr">
+      <c r="J222" t="inlineStr">
         <is>
           <t>Natales</t>
         </is>

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
+          <t>16/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,16 +8446,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,11 +10035,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10144,12 +10144,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,16 +8446,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,11 +10035,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10144,12 +10144,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/09/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,16 +8446,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,11 +10035,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10144,12 +10144,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,16 +8446,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,11 +10035,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10144,12 +10144,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>13/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156700763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156957631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120136. Centro Morgan. RCA Nº 011/2012</t>
+          <t>CENTRAL DE GENERACIÓN DE ENERGÍA ELÉCTRICA A GAS LAS LENGAS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Innovación Energía S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4531</v>
+        <v>7000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156476401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156700763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
+          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120136. Centro Morgan. RCA Nº 011/2012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156395867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156476401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Centro de Engorda de Salmones. Código de centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
+          <t>Ampliación de Biomasa del Centro de Engorda de Salmones. Código de Centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/06/2022</t>
+          <t>12/07/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156325560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156395867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
+          <t>Ampliación de Biomasa de Centro de Engorda de Salmones. Código de centro Nº 120135. Centro Punta Goddard. RCA Nº 007/2012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>24/06/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156325560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
+          <t>(120137) Modificación de Proyecto Técnico, Centro de Engorda de Salmónidos, Canal Valdés, al Norte de Caleta Fog, RCA N°009/2012</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Empresa Portuaria Austral</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2985</v>
+        <v>4531</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155422524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
+          <t>MEJORAMIENTO CAPACIDAD DE ATRAQUE TERMINAL MARÍTIMO DE PUERTO NATALES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,21 +731,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2985</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154660265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Muelle de Operaciones</t>
+          <t>Mejoramiento Capacidad de Atraque Terminal Marítimo de Puerto Natales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>Empresa Portuaria Austral</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154339367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Ampliación Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6500</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153828721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>04/03/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Servicio Integral de Redes</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Redes Patagonia Austral SPA</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>04/03/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150867983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/10/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
+          <t>Servicio Integral de Redes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Redes Patagonia Austral SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
+          <t>18/10/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148782576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Christian Patricio Adema Galetovic</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148377422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas de Puerto Natales</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Christian Patricio Adema Galetovic</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4531</v>
+        <v>6500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/01/2020</t>
+          <t>16/09/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148369074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>Modificación Proyecto Técnico, Centro de Engorda Salmonideos Península Barros Arana al Este de Punta Obstrucción</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3000</v>
+        <v>4531</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/09/2018</t>
+          <t>20/01/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145449261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>876</v>
+        <v>3000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14/09/2018</t>
+          <t>20/09/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141378467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
+          <t>Modificación del sistema de descarga de aguas residuales del Lodge Weskar, Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>23100</v>
+        <v>876</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18/04/2018</t>
+          <t>14/09/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141414400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
+          <t>Centro de Cultivo de Salmónidos Estero Poca Esperanza, al norte de Punta Mauricio</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Chañihue SpA</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1500</v>
+        <v>23100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/03/2018</t>
+          <t>18/04/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138906960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
+          <t>?Centro de Engorda de Salmónidos. Sureste Punta Galvarino, Seno Taraba, Comuna de Natales, XII a Región de Magallanes y la Antártica Chilena, PERT N°214122003?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,11 +1351,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Chañihue SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1364,12 +1364,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138719585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Procesadora Dumestre Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>70000</v>
+        <v>3000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>20/03/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos Puerto Demaistre, Canal Señoret, Puerto Natales</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Procesadora Dumestre Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>23100</v>
+        <v>70000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138735453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
+          <t>Centro de Cultivo de Salmónidos Seno Taraba, Bahía Sin Nombre, Península Benson. N° de Solicitud 212122064</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>18600</v>
+        <v>23100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27/12/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138192403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
+          <t>Ensanchamiento Canal Kirke, Ultima Esperanza</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Magallanes S.A.</t>
+          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3684</v>
+        <v>18600</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>27/12/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138020120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
+          <t>INSTALACIÓN Y OPERACIÓN DE TURBOGENERADOR CENTAURO 40 - CENTRAL PUERTO NATALES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Weskar SpA</t>
+          <t>Empresa Eléctrica de Magallanes S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>76</v>
+        <v>3684</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18/12/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137986580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
+          <t>EMISARIO PARA DESCARGA AGUAS DOMICILIARIAS PRETATADAS DEL HOTEL WESKAR, PUERTO NATALES XII REGION</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>Weskar SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3000</v>
+        <v>76</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>17/11/2017</t>
+          <t>18/12/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133484772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
+          <t>Ampliación Planta Álvarez y Álvarez Ltda., Puerto Natales</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>366</v>
+        <v>3000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/11/2017</t>
+          <t>17/11/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132836536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
+          <t>"Regularización, Bocatoma Piscicultura de Recirculación Río Hollemberg"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cultivos Otway S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>22600</v>
+        <v>366</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/06/2017</t>
+          <t>16/11/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133497740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
+          <t>Centro de Cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros de Arana N° de Solicitud 211 122 128</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/06/2017</t>
+          <t>23/06/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Tranquilo</t>
+          <t>"Centro de cultivo de Salmónidos Brazo de Merida, Sector 1, Península Barros Arana, N° de Solicitud 211 122 128"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Cultivos Otway S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50000</v>
+        <v>22600</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/11/2016</t>
+          <t>13/06/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132457021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LOTEO NATALES ORIENTE</t>
+          <t>Proyecto Tranquilo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6106</v>
+        <v>50000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14/10/2016</t>
+          <t>15/11/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131917637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tranquilo</t>
+          <t>LOTEO NATALES ORIENTE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Chabunco S.A.</t>
+          <t>Servicio de Vivienda y Urbanismo - Magallanes</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50000</v>
+        <v>6106</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>14/10/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131870219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
+          <t>Tranquilo</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Chabunco S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/04/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131584423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Reutilización de Lodos de Piscicultura</t>
+          <t>"PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>90</v>
+        <v>24000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/04/2016</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131340479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
+          <t>Reutilización de Lodos de Piscicultura</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pesquera Alvarez y Alvarez Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4000</v>
+        <v>90</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130923324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
+          <t>Modificación Planta Pesquera Alvarez y Alvarez Ltda., Natales</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorias Eden Limitada</t>
+          <t>Pesquera Alvarez y Alvarez Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>950</v>
+        <v>4000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130855434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
+          <t>Astillero Eden, Puerto Natales Provincia de Última Esperanza, XII Región.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SEALAND AQUACULTURE S.A.</t>
+          <t>Inversiones y Asesorias Eden Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>24000</v>
+        <v>950</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130391250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>03/02/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130231296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN LAGO BALMACEDA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>SEALAND AQUACULTURE S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1100</v>
+        <v>24000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/12/2014</t>
+          <t>03/02/2015</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130189631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS OESTE CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122027"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130009441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS, SENO EREZCANO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122001"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>15/12/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130035423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR CALETA ROTUNDA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122028"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>540</v>
+        <v>1100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA IRENE, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122029"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,11 +2459,11 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>920</v>
+        <v>540</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>04/12/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130018302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS ESTE PUNTA VERGARA, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122014"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,11 +2507,11 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>430</v>
+        <v>920</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>04/12/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130036552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BAHÍA LADRILLERO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122021"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>850</v>
+        <v>430</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS SUR BAHÍA CAMERON, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122018"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129953709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS NORTE PUNTA MAURICIO, COMUNA DE NATALES, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122022"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21/11/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130008623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL ESTE DE ISLA CAVIESES, PERT 211122132</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PESQUERA ISLA TRANQUI S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>180</v>
+        <v>3500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19/11/2014</t>
+          <t>21/11/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129967685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE HOJEDA, COMUNA DE NATALES, DÉCIMO SEGUNDA REGION DE MAGALLANES Y ANTARTICA CHILENA, Nº PERT 207122026"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129958505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BRAZO DE MÉRIDA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122023"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129956142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
+          <t>"CENTRO DE CULTIVO DE MITÍLIDOS BARROS ARANA, COMUNA DE NATALES, PROVINCIA DE ULTIMA ESPERANZA, DECIMO SEGUNDA REGIÓN DE MAGALLANES Y ANTÁRTICA CHILENA, PERT N° 207122020"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA ISLA TRANQUI S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3500</v>
+        <v>320</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>05/03/2014</t>
+          <t>19/11/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129955105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
+          <t>CENTRO DE CULTIVO, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PUNTA MAURICIO, PERT 207122033.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Minera Patagonia Peat S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>450</v>
+        <v>3500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>05/03/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129286604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
+          <t>Extracción de turba en Turbera Juan Gilberto, sector Estancia Berta</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Minera Patagonia Peat S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128928846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120079, SECTOR ESTERO POCA ESPERANZA, PENINSULA BARROS ARANA, PERT 213122366</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22/10/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128849988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120080, SECTOR ESTE DE ISLAS WAGNER, PERT 213122243</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128650681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120078, SECTOR ESTERO POCA ESPERANZA, AL SUR DE PENINSULA BARROS ARANA, PERT 213122244</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,11 +3083,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/06/2013</t>
+          <t>22/10/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128699667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
+          <t>Sector Estero Poca Esperanza, Brazo de Hojeda, Comuna de Natales, Provincia de Última Esperanza, XII Región de Magallanes, Pert 207122058</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>24/06/2013</t>
+          <t>27/06/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8266890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120081, SECTOR ESTERO POCA ESPERANZA, PENÍNSULA BARROS ARANA, PERT 213122187.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>24/06/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8250671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Zúñiga</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120083, SECTOR ESTERO POCA ESPERANZA AL OESTE DE BAHÍA TRANQUILA, PERT 213122186.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ServiAustral S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>07/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8235309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
+          <t>Extracción de Áridos Zúñiga</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ServiAustral S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8215319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO, CODIGO DE CENTRO 120084, SECTOR ESTERO POCA ESPERANZA, AL SUROESTE DE BAHÍA TRANQUILA, PERT 213122185.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,11 +3323,11 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>07/06/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8221645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, FRENTE ISLAS WAGNER, CÓDIGO DE CENTRO 120080, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA I, CÓDIGO DE CENTRO 120079, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRADA BAHIA TRANQUILA II, CÓDIGO DE CENTRO 120078, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8005878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA INCINERACIÓN EN CENTRO DE CULTIVO DE SALMONIDEOS, ENTRE DOS ISLAS, CÓDIGO DE CENTRO 120077, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8006675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>Construcción de Líneas de Flujo Pozos Palos Quemados x-1 y María Antonieta x-1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>06/02/2013</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7870242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,21 +3611,21 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/10/2012</t>
+          <t>06/02/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7841029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO GOLONDRINA, XII REGIÓN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,21 +3659,21 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>30</v>
+        <v>24000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/10/2012</t>
+          <t>23/10/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, SUR ISLAS WAGNER, CÓDIGO DE CENTRO 120122, COMUNA DE NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>04/10/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
+          <t>MANEJO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS, BAHÍA PERALES, CÓDIGO DE CENTRO 120076, COMUNA DE NATALES, XII REGIÓN SISTEMA DE ENSILAJE, BAHÍA PERALES, CÓDIGO DE C</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2700</v>
+        <v>30</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>17/08/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
+          <t>"AMPLIACION PLANTA DE PROCESO PARA LA PRODUCCION DE SALMON, PESQUERA EDEN LTDA, PUERTO NATALES, XII REGIÓN." AMPLIACION PLANTA DE PROCESO_PESQUERA EDEN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>17/08/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7233189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
+          <t>CENTRO DE ENGORDA DE SALMONES, SENO TARABA SURWESTE, AL SUR BAHÍA SIN NOMBRE. PERT Nº 207122133, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7054784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
+          <t>CENTRO DE ENGORDA DE SALMONES SENO TARABA NORWESTE, SECTOR PUNTA GALVARINO PERT Nº 207122135, NATALES, XII REGIÓN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/05/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, PTA. ENTRADA, XII REGIÓN N° PERT. 204122001.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS PENINSULA VICUÑA MACKENA, ESTERO POCA ESPERANZA, XII REGIÓN N° PERT. 204122009.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>08/05/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6881866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PESQUERA TRES VIENTOS S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS BORCOSKY 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122007"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS EREZCANO, SECTOR 2, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122002</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS, ESTERO WORSLEY, SECTOR 1, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122004"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>"CENTRO DE CULTIVO DE MITILIDOS PUNTA RODRIGUEZ, COMUNA DE NATALES, DUODECIMA REGIÓN Nº PERT 207122003"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>PESQUERA TRES VIENTOS S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3500</v>
+        <v>45</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>10/04/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Multiexport Patagonia S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>03/04/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
+          <t>"CES, SENO TARABA ESTE, SECTOR 1, ESTERO SIN NOMBRE. PERT Nº 207122126 "</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6727874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
+          <t>"CES, Seno Taraba Sur, Sector 3 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Surweste Sector 2, Bahía Sin Nombre Puerto Natales XII Región, Pert Nº 207122127"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
+          <t>"Centro Engorda de Salmones Seno Taraba Weste Sur Punta Galvarino, Puerto Natales XII Región, Pert Nº 207122139"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>03/04/2012</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"CES, Seno Taraba Sur, Sector 1 Sin Nombre, Puerto Natales, XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Multiexport Patagonia S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6756192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 1 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122129"</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>19/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/03/2012</t>
+          <t>19/03/2012</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Este, Sector 1, Estero Sin Nombre, Puerto Natales XII Región, Pert Nº 207122126"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>15/03/2012</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR WESTE DE ISLA OWEN, XII REGIÓN N° PERT. 207122068.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6672509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 3, XII REGIÓN N° PERT. 207122064.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>29/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6673453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, SECTOR NORTE DE ISLA OWEN Nº 5, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122066.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6623581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR NORTE DE ISLA OWEN Nº 4, XII REGIÓN N° PERT. 207122065.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16/02/2012</t>
+          <t>29/02/2012</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6645121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR BRAZO DE GUARDRAMIRO, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122034.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6599020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, PENINSULA VICUÑA MACKENA, COMUNA DE NATALES, XII REGIÓN N° PERT: 207122032</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,11 +5147,11 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>06/02/2012</t>
+          <t>16/02/2012</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6600369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS, CANAL VALDES, PUNTA JONSHON, COMUNA DE NATALES, XII REGIÓN N° PERT. 207122057.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/02/2012</t>
+          <t>06/02/2012</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6577037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
+          <t>AMPLIACION SISTEMA DE TRATAMIENTO DE VISCERAS Y MORTALIDAD MEDIANTE ENSILAJE, PESQUERA EDEN, PUERTO NATALES, XII REGIÓN.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>02/02/2012</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6552881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE MAR: SECTOR PUNTA VERGARA .</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,21 +5291,21 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>28/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6448105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION. MORTALIDAD MEDIANTE ENSILAJE OBSTRUCCION CALETA DO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6427992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION. MORTALIDAD ENSILAJE OBSTRUCCION BAHIA CONVENIO</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>26/12/2011</t>
+          <t>28/12/2011</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6430835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR CALETA DORA, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6417886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>MANEJO DE LA MORTALIDAD MEDIANTE SISTEMA DE INCINERACION EN CENTRO DE CULTIVO DE SALMONIDEOS ESTERO OBSTRUCCION, SECTOR BAHIA CONVENIO, COMUNA DE NATALES, XII REGION.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>26/12/2011</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6426142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6261325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>Ampliación de Biomasa Centro de cultivo de Salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,11 +5579,11 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>04/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6221024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>BIOSYSTEM S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>02/11/2011</t>
+          <t>04/11/2011</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6220330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
+          <t>RECICLAJE DE RESIDUOS ORGANICOS POR MEDIO DE BIODIGESTION ANAEROBICA ESTRICTA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>BIOSYSTEM S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>28/10/2011</t>
+          <t>02/11/2011</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6211629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
+          <t>Instalación de Incinerador de Mortalidad en centro de cultivo de salmonideos, Estero Poca Esperanza, Sector Islas Wagner, Comuna de Natales, XII Región</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,21 +5723,21 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>24000</v>
+        <v>30</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12/10/2011</t>
+          <t>28/10/2011</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6204369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>12/10/2011</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
+          <t>PISCICULTURA DE RECIRCULACIÓN RÍO HOLLEMBERG, XII REGIÓN</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2400</v>
+        <v>24000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>09/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
+          <t>Centro de Engorda de Salmonideos "Estero Poca Esperanza al Oeste de Punta Goddard" N° PERT 207122051</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
+          <t>Centro de Engorda de Salmonideos "Península Morgan al Sur de Punta Lavapie" N° PERT 207122052</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>07/09/2011</t>
+          <t>09/09/2011</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Península Barros Arana al Este de Punta Obstrucción" N° PERT 207122118</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>07/09/2011</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>30</v>
+        <v>2400</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>31/08/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
+          <t>Instalacion de Incinerador de Mortalidad en Centro de Engorda Donoso, Provincia de Ultima Esperanza</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2400</v>
+        <v>30</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/08/2011</t>
+          <t>31/08/2011</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5943545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
+          <t>Centro de Engorda de Salmonideos "Peninsula Barros Arana, al Este de Punta Obstrucción" Nº PERT 207122118</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Agrupación de Cipreseros Última Esperanza</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>110</v>
+        <v>2400</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>30/08/2011</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5972958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>PLAN DE MANEJO BOSQUE NATIVO EN RESERVA NACIONAL ALACALUFES</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Agrupación de Cipreseros Última Esperanza</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>25/07/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>GeoPark Magallanes Ltda</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5837387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
+          <t>Construcción de Línea de Flujo Pozo Renoval x-1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>GeoPark Magallanes Ltda</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>11/07/2011</t>
+          <t>25/07/2011</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA DELANO, CANAL SEÑORET, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>11/07/2011</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5778881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
+          <t>Implementación Sistema de Ensilaje de Mortalidad, en Valle Prat, Comuna de Puerto Natales, XII Región</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5534745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
+          <t>"Sistema de tratamiento de vísceras y mortalidad mediante Ensilaje"</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3500</v>
+        <v>180</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMÓNIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLA WAGNER, COMUNA DE NATALES, XII REGIÓN N° PERT. 210122015.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5350133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO DE CULTIVO DE SALMONIDEOS LADRILLERO, PENINSULA MORGAN Nº PERT: 210122016.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6543,17 +6543,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
+          <t>Ampliación Biomasa Centro de Cultivo de Salmonideos, Estero Poca Esperanza, Sector Isla Wagner, N° de PERT: 210122015</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR WESTE DE LA EX ISLA VERGARA, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>28/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5098690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,11 +6779,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>28/10/2010</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PUNTA VERGARA, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3500</v>
+        <v>110</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>31/08/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5020895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6879,17 +6879,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>10/08/2010</t>
+          <t>31/08/2010</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4873998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>AMPLIACIÓN BIOMASA CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA; Nº PERT: 210122014.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>13200</v>
+        <v>3500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>10/08/2010</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4807908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>30</v>
+        <v>13200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4664088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Habilitación Hotel Puerto Bories</t>
+          <t>"SISTEMA DE INCINERACIÓN DE MORTALIDAD CENTRO DE CULTIVO DE SALMONES DELANO, COMUNA DE NATALES, PROVINCIA DE ÚLTIMA ESPERANZA, XII REGIÓN, CODIGO SERNAP 120035¿</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Puerto Bories S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>13000</v>
+        <v>30</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>07/04/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4570704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7071,17 +7071,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>07/04/2010</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>11/02/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4431394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
+          <t>Habilitación Hotel Puerto Bories</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad Puerto Bories S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>189</v>
+        <v>13000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>11/02/2010</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4380143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO O¿HIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7215,17 +7215,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4335649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
+          <t>SANEAMIENTO DE MICROBASURALES DE ISLA SALAMANDRA EN PARQUE NACIONAL BERNARDO OHIGGINS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2000</v>
+        <v>189</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>13/01/2010</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4317509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
+          <t>AMPLIACION PLANTA PROCESO Y CAMBIO SISTEMA TRATAMIENTO PARA LA PRODUCCION DE SALMÓN FRESCO PESQUERA EDEN LTDA. PUERTO NATALES, XII REGIÓN APP SALMONES EDEN (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Entrevientos S.A</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2755</v>
+        <v>2000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4033120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONIDEOS, SECTOR ESTE PUNTA DAROCH, CANAL SEÑORET, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122086 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Entrevientos S.A</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4000</v>
+        <v>2755</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>17/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS PUNTA ENTRADA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 204122001 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>17/04/2009</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3706780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13/04/2009</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA MAURICIO SUR, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122033 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,21 +7595,21 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12/01/2009</t>
+          <t>13/04/2009</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BAHÍA EASTER, CANAL VALDÉS, COMUNA DE NATALES, XII REGIÓN, Nº Pert 208122078 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>12/01/2009</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3486220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>Actualización Plan Regulador Comunal de Natales (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3279914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,30 +7778,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1200</v>
+        <v>2755</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,30 +7826,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>20/06/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,10 +7864,14 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PUNTA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122008 (e-seia)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7875,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>22/04/2008</t>
+          <t>20/06/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,14 +7912,10 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centro de Manejo de Residuos Sólidos de Natales Centro de Manejo Residuos Sólidos Natales</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
           <t>Duodécima</t>
@@ -7923,15 +7923,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>24/03/2008</t>
+          <t>22/04/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2800483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR PASO VATTUONE, COMUNA DE NATALES, XII REGIÓN. Nº Pert 206122009 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,15 +7971,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>24/03/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2798366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Intercomunal Natales Torres del Payne Plan Regulador Intercomunal Natales-Torres del Pay (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,30 +8014,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,30 +8062,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>07/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Isla Rennel, Reserva Nacional Alacalufes Plan de Manejo Bosque Nativo Isla Rennel RN Alacal (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,25 +8115,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>07/08/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGION. N° PERT. 201122026 CES Nº PERT 201122026 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMONIDEOS, ESTERO POCA ESPERANZA, SECTOR ISLAS WAGNER, COMUNA DE NATALES, XII REGIÓN. Nº PERT. 201122032 CES Nº PERT 201122032 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,30 +8206,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2242901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,30 +8254,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
+          <t>Ampliación de baños de uso público y construcción guardería Monumento Natural Cueva del Milodón (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2167869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Construcción de Centro de Información Ambiental, Guardería y Baños de uso público, Sector Monte Balmaceda, Parque Nacional Bernardo O""Higgins (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,15 +8355,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Corporación Nacional Forestal, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2168226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,30 +8398,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,30 +8446,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,30 +8542,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8603,17 +8603,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,25 +8643,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>03/04/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDOS, PENINSULA MORGAN PERT Nº 90120567 salmonidos península Morgan, Pert Nº 90120567 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,30 +8686,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>03/04/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1376508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8747,17 +8747,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,30 +8782,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Constructora BCF S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>940</v>
+        <v>4000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>19/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
+          <t>Empréstito de Material de Terraplén y Áridos para Hormigón (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,15 +8835,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Constructora BCF S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4124</v>
+        <v>940</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>19/01/2006</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229547&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Sector Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,15 +8883,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
+          <t>Plan de Manejo Bosque Nativo en Reserva Nacional Alacalufes (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,25 +8931,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4124</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
+          <t>Tren Turístico Cultural Puerto Natales - Puerto Bories (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,25 +8979,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL COLD SA</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>4124</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>11/11/2004</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº1 (Nº PERT 203122007) (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505255&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº2 (Nº PERT 203122004) (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,7 +9079,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>MITILICULTURA SC COLD Nº3 (Nº PERT 203122003) (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,25 +9123,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Nestor Manuel Hernandez Fuentes</t>
+          <t>SOCIEDAD COMERCIAL COLD SA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>07/09/2004</t>
+          <t>11/11/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=505264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHIA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SEAMAG S.A.</t>
+          <t>Nestor Manuel Hernandez Fuentes</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -9179,17 +9179,17 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>07/09/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=445071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN BAHÍA TALCAHUANO, XII REGION (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,25 +9219,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>SEAMAG S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>24</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>29/10/2003</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=426198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>CES, Seno Erezcano (III) Sector Medio del Seno, Pert N° 96122027 (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,25 +9267,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>29/10/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=187946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>12/08/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
+          <t>Construcción Hotel Centro Turístico Llanuras de Diana (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Caja de Compensación de Asignación Familiar de los Andes</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>20000</v>
+        <v>3300</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>28/05/2003</t>
+          <t>12/08/2003</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
+          <t>Gasoducto Pecket - Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>21/04/2003</t>
+          <t>28/05/2003</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
+          <t>CENTRO DE ENGORDA PASO VATTUONE (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69595&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
+          <t>CENTRO DE ENGORDA ISLA DONOSO II (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Comercial Mac Lean y Cía. Ltda.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/04/2003</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
+          <t>Relleno Sanitario Residuos Industriales Sólidos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,11 +9555,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
+          <t>Comercial Mac Lean y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
+          <t>Construcción Guardería en sector Fiordo Témpano Parque Nacional Bernardo OHiggins XII Región</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,25 +9603,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Acuicola Aguas Australes S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF XIIª Región</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>26/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Esperanza E</t>
+          <t>Pre - Smolt de Salmónidos Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,25 +9651,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Acuicola Aguas Australes S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>3000</v>
+        <v>280</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>26/08/2002</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
+          <t>Perforación de Pozo Esperanza E</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Construcción Muelle de Operaciones</t>
+          <t>Centro de Smoltificación Estero Ultima Esperanza (99122005)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Naviera y Transporte Patagonia Sur Limitada</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>30/07/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
+          <t>Construcción Muelle de Operaciones</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,25 +9795,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Ejercito de Chile - V División</t>
+          <t>Naviera y Transporte Patagonia Sur Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/07/2002</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas para el Regimiento de Caballería Blindada Nº5 Lanceros Puerto Natales</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,25 +9843,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>Ejercito de Chile - V División</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>26/10/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmónideos Bahía Sofía Seno Obstrucción (Nº PER 24122010)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,25 +9891,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2400</v>
+        <v>350</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>26/10/2001</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,11 +9987,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10048,12 +10048,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10144,12 +10144,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10174,20 +10174,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10222,30 +10222,30 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Pesquera Edén Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>17/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
+          <t>Sistema Particular de Tratamiento y Disposición Final de los Residuos Industriales Líquidos</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Pesquera Edén Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>10/08/2001</t>
+          <t>17/09/2001</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Isla Surtidora GLP</t>
+          <t>Construcción y Habilitación de Distribución de Gas Natural Comprimido GNC en Puerto Natales</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,25 +10323,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>GASCO S.A.</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>29/09/2000</t>
+          <t>10/08/2001</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Complejo Quincho Villa Luisa</t>
+          <t>Isla Surtidora GLP</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,25 +10371,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Hielos Patagónicos Ltda.</t>
+          <t>GASCO S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>12/09/2000</t>
+          <t>29/09/2000</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,12 +10404,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Sólidos de Natales</t>
+          <t>Complejo Quincho Villa Luisa</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Hielos Patagónicos Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10427,17 +10427,17 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>05/06/2000</t>
+          <t>12/09/2000</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,12 +10452,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
+          <t>Tratamiento de Residuos Sólidos de Natales</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10467,25 +10467,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>René Raúl Montiel Quediman</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>03/04/2000</t>
+          <t>05/06/2000</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta Procesadora de Productos del Mar - René Montiel Quediman</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,20 +10510,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>René Raúl Montiel Quediman</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>03/04/2000</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Complejo Turístico Estancia Perales</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10558,20 +10558,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Juana Rodríguez Tevini</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>28/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Producción de Ovas y Alevines de Salmonideos</t>
+          <t>Complejo Turístico Estancia Perales</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Juana Rodríguez Tevini</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>13/10/1999</t>
+          <t>28/10/1999</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2370&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Centro de Alojamiento Turístico La Estancia</t>
+          <t>Producción de Ovas y Alevines de Salmonideos</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Armando Antonio Alvarez Saldivia</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>26/07/1999</t>
+          <t>13/10/1999</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
+          <t>Centro de Alojamiento Turístico La Estancia</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Trelke Aike Ltda.</t>
+          <t>Armando Antonio Alvarez Saldivia</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>26/07/1999</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
+          <t>Mejoramiento de los RILES de la Planta Faenadora de Carne de la Empresa Trelke Aike</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
+          <t>Trelke Aike Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>15/12/1998</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
+          <t>Planta Procesadora de Productos del Mar - Puerto Natales</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puerto Natales</t>
+          <t>Sociedad de Pescadores Artesanales Pacífico Sur. Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>16/10/1998</t>
+          <t>15/12/1998</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
+          <t>Construcción de Minicentral Hidroeléctrica en la Localidad de Puerto Edén</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puerto Natales</t>
+          <t>Ilustre Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>16/10/1998</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
+          <t>Implementación de un Sistema de Tratamiento de Residuos Sólidos en Puerto Edén</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Sociedad Paso del Indio S.A.</t>
+          <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>08/09/1998</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+          <t>Mini Planta Procesadora de Productos del Mar - Paso del Indio</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,25 +10947,25 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Albamar S.A.</t>
+          <t>Sociedad Paso del Indio S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>19/08/1997</t>
+          <t>08/09/1998</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,43 +10980,91 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
+          <t>Instalación de un Sistema Purificador de Aguas Residuales</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Albamar S.A.</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>650</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>19/08/1997</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=189&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Natales</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
           <t>Vertedero Municipal de Puerto Natales</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
         <is>
           <t>I. Municipalidad de Puerto Natales</t>
         </is>
       </c>
-      <c r="F222" t="n">
+      <c r="F223" t="n">
         <v>20</v>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>11/08/1997</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr">
+      <c r="I223" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J222" t="inlineStr">
+      <c r="J223" t="inlineStr">
         <is>
           <t>Natales</t>
         </is>

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/09/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,11 +9987,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10048,12 +10048,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10192,12 +10192,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,11 +9987,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10048,12 +10048,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10192,12 +10192,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 1, XII REGIÓN N° PERT. 207122069.</t>
+          <t>Centro de Cultivo de Salmonideos Sector Este de la Península Staines N° 3, XII Región N° Pert. 207122071.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6708598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6677859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
+          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Bahía Tranquila Sector 2" N° PERT 207122036</t>
+          <t>Centro de Engorda de Salmonideos "Canal Valdes al Norte de Caleta Fog" N° PERT 207122045</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6002957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5996299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR PASO VATTUONE, PENINSULA ANTONIO VARAS, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR LADRILLEROS, PENINSULA DE MORGAN, ÚLTIMA ESPERANZA.</t>
+          <t>INSTALACIÓN DE INCINERADOR DE MORTALIDAD EN CENTRO PISCICOLA SECTOR BAHIA PERALES, ESTERO ÚLTIMA ESPERANZA.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5038495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5015226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE GUARDRAMIRO, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122034 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3690927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PENÍNSULA VICUÑA MACKENNA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122032 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, BRAZO DE HOJEDA, ESTERO POCA ESPERANZA, COMUNA DE NATALES, XII REGIÓN, Nº Pert 207122058 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3691560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3689216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
+          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ACUICOLA PUNTA VERGARA S.A.</t>
+          <t>Compañía Siderúrgica Huachipato S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2755</v>
+        <v>4245</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL CALADO OPERATIVO DEL MUELLE DE ISLA GUARELLO (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE ENGORDA DE SALMONIDEOS, SECTOR WESTE EX ISLA VERGARA, COMUNA DE NATALES, XII REGIÓN. Nº Pert 208122087 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Compañía Siderúrgica Huachipato S.A.</t>
+          <t>ACUICOLA PUNTA VERGARA S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4245</v>
+        <v>2755</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3119168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Descarga de Residuos Industriales Líquidos y Aguas Servidas fuera de Zona de Protección Litoral con cumplimiento de tabla N° 5 D.S. 90/2000, en Canal Señoret XII Región. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1823957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Smoltificación Donoso I (99122006)</t>
+          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9952,12 +9952,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
+          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,11 +9987,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Pesca Cisne S.A.</t>
+          <t>Pesquera Cabo Spencer S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10000,12 +10000,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Entrada Bahía Tranquila 1 (201122004) Entrada Bahía Tranquila 2 (201122005) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Punta Intervine (201122006) Bahía Irene (201122008) Estero Obstrucción</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>Pesca Cisne S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10048,12 +10048,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente a Punta Sur (201122011) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Spencer S.A.</t>
+          <t>AquaChile Magallanes SpA.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4419&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Frente Islas Wagner (201122009) Entre Dos Islas (201122012) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Tranquila 1 (201122001) Bahía Tranquila 2 (201122002) Bahía Tranquila 3 (201122003) Estero Poca Esperanza Península Barros Arana</t>
+          <t>Centro de Smoltificación Donoso I (99122006)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10192,12 +10192,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">

--- a/data/Natales.xlsx
+++ b/data/Natales.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 4, XII REGIÓN N° PERT. 207122072.</t>
+          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR ESTE DE LA PENINSULA STAINES Nº 6, XII REGIÓN N° PERT. 207122074</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE SALMÓNIDEOS SECTOR PENINSULA STAINES Nº 2, XII REGIÓN N° PERT. 207122070.</t>
+          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AquaChile Magallanes SpA.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6740868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6692127&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>"Centro de Engorda de Salmones, Seno Taraba Sur Sector 3 Sin Nombre, Puerto Natales XII Región, Pert Nº 207122128"</t>
+          <t>